--- a/TNR_PREJDD/RT/PREJDD.RT.EMP.xlsx
+++ b/TNR_PREJDD/RT/PREJDD.RT.EMP.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -132,7 +132,7 @@
     <t>$ORDRE</t>
   </si>
   <si>
-    <t>RO.ACT.004EMP.SRA.01.1</t>
+    <t>EMP.RO.ACT.004EMP.SRA.01.1</t>
   </si>
   <si>
     <t>N</t>
@@ -147,7 +147,7 @@
     <t>$DATETIMESYS</t>
   </si>
   <si>
-    <t>RO.ACT.004EMP.SRA.01.2</t>
+    <t>EMP.RO.ACT.004EMP.SRA.01.2</t>
   </si>
   <si>
     <t>EMP02</t>
@@ -156,13 +156,13 @@
     <t>RO.ACT.004EMP.SRM.01</t>
   </si>
   <si>
-    <t>RO.ACT.004EMP.SRM.01.1</t>
+    <t>EMP.RO.ACT.004EMP.SRM.01.1</t>
   </si>
   <si>
     <t>EMP03</t>
   </si>
   <si>
-    <t>RO.ACT.004EMP.SRM.01.2</t>
+    <t>EMP.RO.ACT.004EMP.SRM.01.2</t>
   </si>
   <si>
     <t>EMP04</t>
@@ -171,19 +171,22 @@
     <t>RO.ACT.004EMP.SRS.01</t>
   </si>
   <si>
-    <t>RO.ACT.004EMP.SRS.01.1</t>
+    <t>EMP.RO.ACT.004EMP.SRS.01.1</t>
   </si>
   <si>
     <t>EMP05</t>
   </si>
   <si>
-    <t>RO.ACT.004EMP.SRS.01.2</t>
+    <t>EMP.RO.ACT.004EMP.SRS.01.2</t>
   </si>
   <si>
     <t>EMP06</t>
   </si>
   <si>
     <t>RO.ACT.004EMP.SRL.01</t>
+  </si>
+  <si>
+    <t>EMP.RO.ACT.004EMP.SRL.01</t>
   </si>
   <si>
     <t>EMP07</t>
@@ -1700,9 +1703,9 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="20.75"/>
     <col customWidth="1" min="4" max="4" width="22.13"/>
-    <col customWidth="1" min="7" max="7" width="25.63"/>
+    <col customWidth="1" min="7" max="7" width="43.63"/>
     <col customWidth="1" min="8" max="8" width="24.13"/>
-    <col customWidth="1" min="9" max="9" width="25.38"/>
+    <col customWidth="1" min="9" max="9" width="33.13"/>
     <col customWidth="1" min="13" max="13" width="24.38"/>
     <col customWidth="1" min="14" max="14" width="22.13"/>
     <col customWidth="1" min="15" max="15" width="29.13"/>
@@ -1798,14 +1801,14 @@
       </c>
       <c r="G2" s="11" t="str">
         <f t="shared" ref="G2:G8" si="1">CONCATENATE(H2,REPT(".",30-LEN(H2)))</f>
-        <v>RO.ACT.004EMP.SRA.01.1........</v>
+        <v>EMP.RO.ACT.004EMP.SRA.01.1....</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>32</v>
       </c>
       <c r="I2" s="13" t="str">
         <f t="shared" ref="I2:I8" si="2">CONCATENATE(H2,REPT(".",30-LEN(H2)))</f>
-        <v>RO.ACT.004EMP.SRA.01.1........</v>
+        <v>EMP.RO.ACT.004EMP.SRA.01.1....</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>33</v>
@@ -1865,14 +1868,14 @@
       </c>
       <c r="G3" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>RO.ACT.004EMP.SRA.01.2........</v>
+        <v>EMP.RO.ACT.004EMP.SRA.01.2....</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>37</v>
       </c>
       <c r="I3" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>RO.ACT.004EMP.SRA.01.2........</v>
+        <v>EMP.RO.ACT.004EMP.SRA.01.2....</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>33</v>
@@ -1932,14 +1935,14 @@
       </c>
       <c r="G4" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>RO.ACT.004EMP.SRM.01.1........</v>
+        <v>EMP.RO.ACT.004EMP.SRM.01.1....</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>RO.ACT.004EMP.SRM.01.1........</v>
+        <v>EMP.RO.ACT.004EMP.SRM.01.1....</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>33</v>
@@ -1999,14 +2002,14 @@
       </c>
       <c r="G5" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>RO.ACT.004EMP.SRM.01.2........</v>
+        <v>EMP.RO.ACT.004EMP.SRM.01.2....</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>42</v>
       </c>
       <c r="I5" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>RO.ACT.004EMP.SRM.01.2........</v>
+        <v>EMP.RO.ACT.004EMP.SRM.01.2....</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>33</v>
@@ -2066,14 +2069,14 @@
       </c>
       <c r="G6" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>RO.ACT.004EMP.SRS.01.1........</v>
+        <v>EMP.RO.ACT.004EMP.SRS.01.1....</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>45</v>
       </c>
       <c r="I6" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>RO.ACT.004EMP.SRS.01.1........</v>
+        <v>EMP.RO.ACT.004EMP.SRS.01.1....</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>33</v>
@@ -2133,14 +2136,14 @@
       </c>
       <c r="G7" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>RO.ACT.004EMP.SRS.01.2........</v>
+        <v>EMP.RO.ACT.004EMP.SRS.01.2....</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>47</v>
       </c>
       <c r="I7" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>RO.ACT.004EMP.SRS.01.2........</v>
+        <v>EMP.RO.ACT.004EMP.SRS.01.2....</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>33</v>
@@ -2200,14 +2203,14 @@
       </c>
       <c r="G8" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>RO.ACT.004EMP.SRL.01..........</v>
+        <v>EMP.RO.ACT.004EMP.SRL.01......</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I8" s="13" t="str">
         <f t="shared" si="2"/>
-        <v>RO.ACT.004EMP.SRL.01..........</v>
+        <v>EMP.RO.ACT.004EMP.SRL.01......</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>33</v>
@@ -2222,7 +2225,7 @@
         <v>30</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O8" s="12" t="s">
         <v>30</v>
